--- a/ドキュメント/DB/【ユーザ情報DB】テーブル定義書.xlsx
+++ b/ドキュメント/DB/【ユーザ情報DB】テーブル定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="0" windowWidth="27870" windowHeight="14010" tabRatio="875"/>
+    <workbookView xWindow="28830" yWindow="0" windowWidth="27870" windowHeight="14010" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="356">
   <si>
     <t>論理テーブル名</t>
     <rPh sb="0" eb="2">
@@ -2117,10 +2117,6 @@
   </si>
   <si>
     <t>「AA141」「A1B20」など</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3131,6 +3127,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3152,6 +3151,9 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3159,6 +3161,21 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3179,21 +3196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3202,12 +3204,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3788,49 +3784,49 @@
     </row>
     <row r="3" spans="1:56" ht="24">
       <c r="A3" s="102"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="108"/>
-      <c r="AB3" s="108"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108"/>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108"/>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109"/>
       <c r="AQ3" s="103"/>
       <c r="AR3" s="103"/>
       <c r="AS3" s="103"/>
@@ -5198,31 +5194,31 @@
       <c r="O27" s="69"/>
       <c r="P27" s="69"/>
       <c r="Q27" s="69"/>
-      <c r="R27" s="109">
+      <c r="R27" s="110">
         <f>MAX(改訂履歴!E3:E44)</f>
         <v>1</v>
       </c>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="109"/>
-      <c r="AJ27" s="109"/>
-      <c r="AK27" s="109"/>
-      <c r="AL27" s="109"/>
-      <c r="AM27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="110"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="110"/>
+      <c r="AM27" s="111"/>
       <c r="AN27" s="69"/>
       <c r="AO27" s="69"/>
       <c r="AP27" s="69"/>
@@ -5259,31 +5255,31 @@
       <c r="O28" s="69"/>
       <c r="P28" s="69"/>
       <c r="Q28" s="69"/>
-      <c r="R28" s="111">
+      <c r="R28" s="112">
         <f>MAX(改訂履歴!C3:C44)</f>
         <v>42937</v>
       </c>
-      <c r="S28" s="112"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
-      <c r="V28" s="112"/>
-      <c r="W28" s="112"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="112"/>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="112"/>
-      <c r="AB28" s="112"/>
-      <c r="AC28" s="112"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="112"/>
-      <c r="AI28" s="112"/>
-      <c r="AJ28" s="112"/>
-      <c r="AK28" s="112"/>
-      <c r="AL28" s="112"/>
-      <c r="AM28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="113"/>
+      <c r="AG28" s="113"/>
+      <c r="AH28" s="113"/>
+      <c r="AI28" s="113"/>
+      <c r="AJ28" s="113"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="113"/>
+      <c r="AM28" s="114"/>
       <c r="AN28" s="69"/>
       <c r="AO28" s="69"/>
       <c r="AP28" s="69"/>
@@ -5431,38 +5427,38 @@
       <c r="J31" s="103"/>
       <c r="K31" s="103"/>
       <c r="L31" s="103"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
-      <c r="AC31" s="112"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="112"/>
-      <c r="AI31" s="112"/>
-      <c r="AJ31" s="112"/>
-      <c r="AK31" s="112"/>
-      <c r="AL31" s="112"/>
-      <c r="AM31" s="112"/>
-      <c r="AN31" s="112"/>
-      <c r="AO31" s="112"/>
-      <c r="AP31" s="112"/>
-      <c r="AQ31" s="112"/>
-      <c r="AR31" s="113"/>
+      <c r="M31" s="113"/>
+      <c r="N31" s="113"/>
+      <c r="O31" s="113"/>
+      <c r="P31" s="113"/>
+      <c r="Q31" s="113"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="113"/>
+      <c r="AG31" s="113"/>
+      <c r="AH31" s="113"/>
+      <c r="AI31" s="113"/>
+      <c r="AJ31" s="113"/>
+      <c r="AK31" s="113"/>
+      <c r="AL31" s="113"/>
+      <c r="AM31" s="113"/>
+      <c r="AN31" s="113"/>
+      <c r="AO31" s="113"/>
+      <c r="AP31" s="113"/>
+      <c r="AQ31" s="113"/>
+      <c r="AR31" s="114"/>
       <c r="AS31" s="103"/>
       <c r="AT31" s="103"/>
       <c r="AU31" s="103"/>
@@ -5489,40 +5485,40 @@
       <c r="J32" s="103"/>
       <c r="K32" s="103"/>
       <c r="L32" s="103"/>
-      <c r="M32" s="114" t="s">
+      <c r="M32" s="115" t="s">
         <v>339</v>
       </c>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
-      <c r="X32" s="114"/>
-      <c r="Y32" s="114"/>
-      <c r="Z32" s="114"/>
-      <c r="AA32" s="114"/>
-      <c r="AB32" s="114"/>
-      <c r="AC32" s="114"/>
-      <c r="AD32" s="114"/>
-      <c r="AE32" s="114"/>
-      <c r="AF32" s="114"/>
-      <c r="AG32" s="114"/>
-      <c r="AH32" s="114"/>
-      <c r="AI32" s="114"/>
-      <c r="AJ32" s="114"/>
-      <c r="AK32" s="114"/>
-      <c r="AL32" s="114"/>
-      <c r="AM32" s="114"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="114"/>
-      <c r="AP32" s="114"/>
-      <c r="AQ32" s="114"/>
-      <c r="AR32" s="113"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="115"/>
+      <c r="AB32" s="115"/>
+      <c r="AC32" s="115"/>
+      <c r="AD32" s="115"/>
+      <c r="AE32" s="115"/>
+      <c r="AF32" s="115"/>
+      <c r="AG32" s="115"/>
+      <c r="AH32" s="115"/>
+      <c r="AI32" s="115"/>
+      <c r="AJ32" s="115"/>
+      <c r="AK32" s="115"/>
+      <c r="AL32" s="115"/>
+      <c r="AM32" s="115"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="115"/>
+      <c r="AP32" s="115"/>
+      <c r="AQ32" s="115"/>
+      <c r="AR32" s="114"/>
       <c r="AS32" s="103"/>
       <c r="AT32" s="103"/>
       <c r="AU32" s="103"/>
@@ -5675,16 +5671,16 @@
       <c r="T35" s="71"/>
       <c r="U35" s="71"/>
       <c r="V35" s="71"/>
-      <c r="X35" s="132"/>
-      <c r="Y35" s="132"/>
-      <c r="Z35" s="132"/>
-      <c r="AA35" s="132"/>
-      <c r="AB35" s="132"/>
-      <c r="AC35" s="132"/>
-      <c r="AD35" s="132"/>
-      <c r="AE35" s="132"/>
-      <c r="AF35" s="132"/>
-      <c r="AG35" s="132"/>
+      <c r="X35" s="116"/>
+      <c r="Y35" s="116"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="116"/>
+      <c r="AB35" s="116"/>
+      <c r="AC35" s="116"/>
+      <c r="AD35" s="116"/>
+      <c r="AE35" s="116"/>
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
       <c r="AH35" s="71"/>
       <c r="AI35" s="71"/>
       <c r="AJ35" s="71"/>
@@ -5722,16 +5718,16 @@
       <c r="T36" s="71"/>
       <c r="U36" s="71"/>
       <c r="V36" s="71"/>
-      <c r="X36" s="133"/>
-      <c r="Y36" s="133"/>
-      <c r="Z36" s="133"/>
-      <c r="AA36" s="133"/>
-      <c r="AB36" s="133"/>
-      <c r="AC36" s="133"/>
-      <c r="AD36" s="133"/>
-      <c r="AE36" s="133"/>
-      <c r="AF36" s="133"/>
-      <c r="AG36" s="133"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="108"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="108"/>
+      <c r="AC36" s="108"/>
+      <c r="AD36" s="108"/>
+      <c r="AE36" s="108"/>
+      <c r="AF36" s="108"/>
+      <c r="AG36" s="108"/>
       <c r="AH36" s="71"/>
       <c r="AI36" s="71"/>
       <c r="AJ36" s="71"/>
@@ -5769,16 +5765,16 @@
       <c r="T37" s="71"/>
       <c r="U37" s="71"/>
       <c r="V37" s="71"/>
-      <c r="X37" s="133"/>
-      <c r="Y37" s="133"/>
-      <c r="Z37" s="133"/>
-      <c r="AA37" s="133"/>
-      <c r="AB37" s="133"/>
-      <c r="AC37" s="133"/>
-      <c r="AD37" s="133"/>
-      <c r="AE37" s="133"/>
-      <c r="AF37" s="133"/>
-      <c r="AG37" s="133"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="108"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
       <c r="AH37" s="71"/>
       <c r="AI37" s="71"/>
       <c r="AJ37" s="71"/>
@@ -5816,16 +5812,16 @@
       <c r="T38" s="71"/>
       <c r="U38" s="71"/>
       <c r="V38" s="71"/>
-      <c r="X38" s="133"/>
-      <c r="Y38" s="133"/>
-      <c r="Z38" s="133"/>
-      <c r="AA38" s="133"/>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="133"/>
-      <c r="AD38" s="133"/>
-      <c r="AE38" s="133"/>
-      <c r="AF38" s="133"/>
-      <c r="AG38" s="133"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+      <c r="Z38" s="108"/>
+      <c r="AA38" s="108"/>
+      <c r="AB38" s="108"/>
+      <c r="AC38" s="108"/>
+      <c r="AD38" s="108"/>
+      <c r="AE38" s="108"/>
+      <c r="AF38" s="108"/>
+      <c r="AG38" s="108"/>
       <c r="AH38" s="71"/>
       <c r="AI38" s="71"/>
       <c r="AJ38" s="71"/>
@@ -5863,16 +5859,16 @@
       <c r="T39" s="71"/>
       <c r="U39" s="71"/>
       <c r="V39" s="71"/>
-      <c r="X39" s="133"/>
-      <c r="Y39" s="133"/>
-      <c r="Z39" s="133"/>
-      <c r="AA39" s="133"/>
-      <c r="AB39" s="133"/>
-      <c r="AC39" s="133"/>
-      <c r="AD39" s="133"/>
-      <c r="AE39" s="133"/>
-      <c r="AF39" s="133"/>
-      <c r="AG39" s="133"/>
+      <c r="X39" s="108"/>
+      <c r="Y39" s="108"/>
+      <c r="Z39" s="108"/>
+      <c r="AA39" s="108"/>
+      <c r="AB39" s="108"/>
+      <c r="AC39" s="108"/>
+      <c r="AD39" s="108"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="108"/>
+      <c r="AG39" s="108"/>
       <c r="AH39" s="71"/>
       <c r="AI39" s="71"/>
       <c r="AJ39" s="71"/>
@@ -6493,9 +6489,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -6621,10 +6615,10 @@
       <c r="H6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -6648,12 +6642,12 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="117" t="s">
         <v>156</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -6677,12 +6671,12 @@
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="117" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -6706,10 +6700,10 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -6733,12 +6727,12 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30" t="str">
@@ -6752,10 +6746,10 @@
       <c r="F11" s="33"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -6769,10 +6763,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -6786,10 +6780,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -6803,10 +6797,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -6820,10 +6814,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -6837,10 +6831,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -6854,10 +6848,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -6871,10 +6865,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -6888,10 +6882,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -6905,10 +6899,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -6922,10 +6916,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -6939,10 +6933,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -6956,10 +6950,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -6973,10 +6967,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -6990,10 +6984,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -7007,10 +7001,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -7024,10 +7018,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -7041,10 +7035,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -7058,10 +7052,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -7075,10 +7069,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -7092,10 +7086,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -7109,10 +7103,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -7126,10 +7120,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -7143,10 +7137,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -7160,10 +7154,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -7177,10 +7171,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -7194,10 +7188,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -7211,10 +7205,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -7228,19 +7222,25 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -7257,18 +7257,12 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -7289,9 +7283,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -7417,10 +7409,10 @@
       <c r="H6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -7444,12 +7436,12 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30" t="str">
@@ -7463,10 +7455,10 @@
       <c r="F8" s="33"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30" t="str">
@@ -7480,10 +7472,10 @@
       <c r="F9" s="33"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30" t="str">
@@ -7497,10 +7489,10 @@
       <c r="F10" s="33"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30" t="str">
@@ -7514,10 +7506,10 @@
       <c r="F11" s="33"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -7531,10 +7523,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -7548,10 +7540,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -7565,10 +7557,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -7582,10 +7574,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -7599,10 +7591,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -7616,10 +7608,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -7633,10 +7625,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -7650,10 +7642,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -7667,10 +7659,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -7684,10 +7676,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -7701,10 +7693,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -7718,10 +7710,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -7735,10 +7727,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -7752,10 +7744,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -7769,10 +7761,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -7786,10 +7778,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -7803,10 +7795,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -7820,10 +7812,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -7837,10 +7829,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -7854,10 +7846,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -7871,10 +7863,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -7888,10 +7880,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -7905,10 +7897,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -7922,10 +7914,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -7939,10 +7931,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -7956,10 +7948,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -7973,10 +7965,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -7990,19 +7982,25 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -8019,18 +8017,12 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -8051,9 +8043,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -8175,10 +8165,10 @@
       </c>
       <c r="G6" s="94"/>
       <c r="H6" s="94"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="120"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="127"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -8200,14 +8190,12 @@
       <c r="F7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="96" t="s">
-        <v>356</v>
-      </c>
+      <c r="G7" s="96"/>
       <c r="H7" s="93"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -8231,12 +8219,12 @@
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -8260,12 +8248,12 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -8289,12 +8277,12 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30" t="str">
@@ -8308,10 +8296,10 @@
       <c r="F11" s="33"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -8325,10 +8313,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -8342,10 +8330,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -8359,10 +8347,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -8376,10 +8364,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -8393,10 +8381,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -8410,10 +8398,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="133"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -8427,10 +8415,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -8444,10 +8432,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -8461,10 +8449,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -8478,10 +8466,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -8495,10 +8483,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -8512,10 +8500,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -8529,10 +8517,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -8546,10 +8534,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -8563,10 +8551,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -8580,10 +8568,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -8597,10 +8585,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -8614,10 +8602,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -8631,10 +8619,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -8648,10 +8636,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -8665,10 +8653,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -8682,10 +8670,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -8699,10 +8687,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -8716,10 +8704,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -8733,10 +8721,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -8750,10 +8738,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -8767,10 +8755,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -8784,19 +8772,25 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -8813,18 +8807,12 @@
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -8971,12 +8959,12 @@
       <c r="H6" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -9004,12 +8992,12 @@
       <c r="H7" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -9035,12 +9023,12 @@
         <v>12</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -9064,12 +9052,12 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -9093,12 +9081,12 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30" t="str">
@@ -9112,12 +9100,12 @@
       <c r="F11" s="33"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -9131,10 +9119,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -9148,10 +9136,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -9165,10 +9153,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -9182,10 +9170,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -9199,10 +9187,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -9216,10 +9204,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -9233,10 +9221,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -9250,10 +9238,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -9267,10 +9255,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -9284,10 +9272,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -9301,10 +9289,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -9318,10 +9306,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -9335,10 +9323,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -9352,10 +9340,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -9369,10 +9357,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -9386,10 +9374,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -9403,10 +9391,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -9420,10 +9408,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -9437,10 +9425,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -9454,10 +9442,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -9471,10 +9459,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -9488,10 +9476,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -9505,10 +9493,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -9522,10 +9510,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -9539,10 +9527,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -9556,10 +9544,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -9573,10 +9561,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -9590,19 +9578,25 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -9619,18 +9613,12 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -9777,12 +9765,12 @@
       <c r="H6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -9808,12 +9796,12 @@
         <v>12</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -9837,12 +9825,12 @@
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -9866,12 +9854,12 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -9895,12 +9883,12 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30">
@@ -9924,12 +9912,12 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -9943,10 +9931,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -9960,10 +9948,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -9977,10 +9965,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="133"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -9994,10 +9982,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -10011,10 +9999,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -10028,10 +10016,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -10045,10 +10033,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -10062,10 +10050,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -10079,10 +10067,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -10096,10 +10084,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -10113,10 +10101,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -10130,10 +10118,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -10147,10 +10135,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -10164,10 +10152,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -10181,10 +10169,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -10198,10 +10186,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -10215,10 +10203,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -10232,10 +10220,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -10249,10 +10237,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -10266,10 +10254,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -10283,10 +10271,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -10300,10 +10288,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -10317,10 +10305,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -10334,10 +10322,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -10351,10 +10339,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -10368,10 +10356,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -10385,10 +10373,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -10402,19 +10390,25 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -10431,18 +10425,12 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -10589,10 +10577,10 @@
       <c r="H6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -10618,10 +10606,10 @@
         <v>91</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -10647,12 +10635,12 @@
         <v>91</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -10676,12 +10664,12 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -10705,12 +10693,12 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30" t="str">
@@ -10724,12 +10712,12 @@
       <c r="F11" s="33"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -10743,10 +10731,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -10760,10 +10748,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -10777,10 +10765,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="133"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -10794,10 +10782,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -10811,10 +10799,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -10828,10 +10816,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -10845,10 +10833,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -10862,10 +10850,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -10879,10 +10867,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -10896,10 +10884,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -10913,10 +10901,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -10930,10 +10918,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -10947,10 +10935,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -10964,10 +10952,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -10981,10 +10969,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -10998,10 +10986,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -11015,10 +11003,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -11032,10 +11020,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -11049,10 +11037,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -11066,10 +11054,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -11083,10 +11071,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -11100,10 +11088,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -11117,10 +11105,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -11134,10 +11122,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -11151,10 +11139,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -11168,10 +11156,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -11185,10 +11173,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -11202,13 +11190,31 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I20:L20"/>
     <mergeCell ref="I37:L37"/>
     <mergeCell ref="I38:L38"/>
     <mergeCell ref="I39:L39"/>
@@ -11225,24 +11231,6 @@
     <mergeCell ref="I36:L36"/>
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -11263,9 +11251,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -11391,10 +11377,10 @@
       <c r="H6" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -11420,10 +11406,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -11449,12 +11435,12 @@
         <v>12</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="115" t="s">
+      <c r="I8" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -11478,12 +11464,12 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -11507,12 +11493,12 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30" t="str">
@@ -11526,12 +11512,12 @@
       <c r="F11" s="33"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -11545,10 +11531,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -11562,10 +11548,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -11579,10 +11565,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -11596,10 +11582,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -11613,10 +11599,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -11630,10 +11616,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -11647,10 +11633,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -11664,10 +11650,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -11681,10 +11667,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -11698,10 +11684,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -11715,10 +11701,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -11732,10 +11718,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -11749,10 +11735,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -11766,10 +11752,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -11783,10 +11769,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -11800,10 +11786,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -11817,10 +11803,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -11834,10 +11820,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -11851,10 +11837,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -11868,10 +11854,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -11885,10 +11871,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -11902,10 +11888,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -11919,10 +11905,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -11936,10 +11922,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -11953,10 +11939,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -11970,10 +11956,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -11987,10 +11973,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -12004,23 +11990,25 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
     <mergeCell ref="I29:L29"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I18:L18"/>
@@ -12033,18 +12021,16 @@
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="I27:L27"/>
     <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -12062,9 +12048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
@@ -12542,9 +12526,7 @@
   </sheetPr>
   <dimension ref="B1:E35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12962,9 +12944,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -13085,14 +13065,12 @@
       <c r="F6" s="67">
         <v>0</v>
       </c>
-      <c r="G6" s="97" t="s">
-        <v>356</v>
-      </c>
+      <c r="G6" s="97"/>
       <c r="H6" s="94"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -13116,10 +13094,10 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -13143,10 +13121,10 @@
       </c>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -13170,10 +13148,10 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -13197,10 +13175,10 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30">
@@ -13224,10 +13202,10 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30">
@@ -13251,10 +13229,10 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30">
@@ -13278,10 +13256,10 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30">
@@ -13305,10 +13283,10 @@
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30">
@@ -13332,10 +13310,10 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30">
@@ -13359,10 +13337,10 @@
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30">
@@ -13386,10 +13364,10 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30">
@@ -13413,12 +13391,12 @@
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115" t="s">
+      <c r="I18" s="117" t="s">
         <v>355</v>
       </c>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30">
@@ -13442,10 +13420,10 @@
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30">
@@ -13469,10 +13447,10 @@
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="128"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30">
@@ -13496,10 +13474,10 @@
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30">
@@ -13523,10 +13501,10 @@
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="128"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="121"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30">
@@ -13550,10 +13528,10 @@
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="127"/>
-      <c r="L23" s="128"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="121"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30">
@@ -13577,10 +13555,10 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="128"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="121"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30">
@@ -13604,10 +13582,10 @@
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30">
@@ -13631,10 +13609,10 @@
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30">
@@ -13658,10 +13636,10 @@
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30">
@@ -13685,10 +13663,10 @@
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30">
@@ -13712,10 +13690,10 @@
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30">
@@ -13739,10 +13717,10 @@
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30">
@@ -13766,10 +13744,10 @@
       </c>
       <c r="G31" s="93"/>
       <c r="H31" s="93"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="119"/>
-      <c r="L31" s="120"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30">
@@ -13793,10 +13771,10 @@
       </c>
       <c r="G32" s="93"/>
       <c r="H32" s="93"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="120"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="127"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30">
@@ -13820,10 +13798,10 @@
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30">
@@ -13847,10 +13825,10 @@
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30">
@@ -13874,10 +13852,10 @@
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30">
@@ -13901,10 +13879,10 @@
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30">
@@ -13928,10 +13906,10 @@
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -13945,10 +13923,10 @@
       <c r="F38" s="63"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -13962,13 +13940,35 @@
       <c r="F39" s="68"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I26:L26"/>
@@ -13981,28 +13981,6 @@
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -14020,9 +13998,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -14142,16 +14118,12 @@
       <c r="F6" s="63">
         <v>0</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -14175,10 +14147,10 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -14202,10 +14174,10 @@
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -14229,10 +14201,10 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -14256,10 +14228,10 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30">
@@ -14283,12 +14255,12 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="117" t="s">
         <v>355</v>
       </c>
-      <c r="J11" s="127"/>
-      <c r="K11" s="127"/>
-      <c r="L11" s="128"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30">
@@ -14312,10 +14284,10 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30">
@@ -14339,10 +14311,10 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30">
@@ -14366,10 +14338,10 @@
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30">
@@ -14393,12 +14365,12 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="117" t="s">
         <v>355</v>
       </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30">
@@ -14422,10 +14394,10 @@
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30">
@@ -14449,10 +14421,10 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30">
@@ -14476,10 +14448,10 @@
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30">
@@ -14503,10 +14475,10 @@
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30">
@@ -14530,10 +14502,10 @@
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -14547,10 +14519,10 @@
       <c r="F21" s="63"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -14564,10 +14536,10 @@
       <c r="F22" s="63"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -14581,10 +14553,10 @@
       <c r="F23" s="63"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -14598,10 +14570,10 @@
       <c r="F24" s="63"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -14615,10 +14587,10 @@
       <c r="F25" s="63"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -14632,10 +14604,10 @@
       <c r="F26" s="63"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -14649,10 +14621,10 @@
       <c r="F27" s="63"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -14666,10 +14638,10 @@
       <c r="F28" s="63"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -14683,10 +14655,10 @@
       <c r="F29" s="63"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -14700,10 +14672,10 @@
       <c r="F30" s="63"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -14717,10 +14689,10 @@
       <c r="F31" s="63"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -14734,10 +14706,10 @@
       <c r="F32" s="63"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -14751,10 +14723,10 @@
       <c r="F33" s="63"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -14768,10 +14740,10 @@
       <c r="F34" s="63"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -14785,10 +14757,10 @@
       <c r="F35" s="63"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -14802,10 +14774,10 @@
       <c r="F36" s="63"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -14819,10 +14791,10 @@
       <c r="F37" s="63"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -14836,10 +14808,10 @@
       <c r="F38" s="63"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -14853,13 +14825,31 @@
       <c r="F39" s="68"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="I32:L32"/>
@@ -14876,24 +14866,6 @@
     <mergeCell ref="I16:L16"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -14911,9 +14883,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -15039,12 +15009,12 @@
       <c r="H6" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="122" t="s">
         <v>352</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -15068,10 +15038,10 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -15095,10 +15065,10 @@
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -15122,10 +15092,10 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -15149,10 +15119,10 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30">
@@ -15176,10 +15146,10 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30">
@@ -15203,10 +15173,10 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30">
@@ -15230,10 +15200,10 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30">
@@ -15257,10 +15227,10 @@
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="133"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30">
@@ -15284,10 +15254,10 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30">
@@ -15311,10 +15281,10 @@
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30">
@@ -15338,10 +15308,10 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30">
@@ -15365,10 +15335,10 @@
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30">
@@ -15392,10 +15362,10 @@
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30">
@@ -15419,10 +15389,10 @@
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30">
@@ -15446,10 +15416,10 @@
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30">
@@ -15473,10 +15443,10 @@
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30">
@@ -15500,10 +15470,10 @@
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30">
@@ -15527,10 +15497,10 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30">
@@ -15554,10 +15524,10 @@
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30">
@@ -15581,10 +15551,10 @@
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30">
@@ -15608,10 +15578,10 @@
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30">
@@ -15635,10 +15605,10 @@
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30">
@@ -15662,10 +15632,10 @@
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30">
@@ -15689,10 +15659,10 @@
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30">
@@ -15716,10 +15686,10 @@
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -15733,10 +15703,10 @@
       <c r="F32" s="60"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -15750,10 +15720,10 @@
       <c r="F33" s="60"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -15767,10 +15737,10 @@
       <c r="F34" s="60"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -15784,10 +15754,10 @@
       <c r="F35" s="60"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -15801,10 +15771,10 @@
       <c r="F36" s="60"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -15818,10 +15788,10 @@
       <c r="F37" s="60"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -15835,10 +15805,10 @@
       <c r="F38" s="60"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -15852,19 +15822,25 @@
       <c r="F39" s="62"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -15881,18 +15857,12 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -15913,9 +15883,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -16041,12 +16009,12 @@
       <c r="H6" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="122" t="s">
         <v>353</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -16070,10 +16038,10 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -16097,10 +16065,10 @@
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -16124,10 +16092,10 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -16151,10 +16119,10 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30">
@@ -16178,10 +16146,10 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30">
@@ -16205,10 +16173,10 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30">
@@ -16232,10 +16200,10 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30">
@@ -16259,10 +16227,10 @@
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30">
@@ -16286,10 +16254,10 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30">
@@ -16313,10 +16281,10 @@
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30">
@@ -16340,10 +16308,10 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="128"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30">
@@ -16367,10 +16335,10 @@
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30">
@@ -16394,10 +16362,10 @@
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="128"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="121"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30">
@@ -16421,10 +16389,10 @@
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="128"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -16438,10 +16406,10 @@
       <c r="F21" s="60"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -16455,10 +16423,10 @@
       <c r="F22" s="60"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="128"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="121"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -16472,10 +16440,10 @@
       <c r="F23" s="60"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -16489,10 +16457,10 @@
       <c r="F24" s="60"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="128"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="121"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -16506,10 +16474,10 @@
       <c r="F25" s="60"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -16523,10 +16491,10 @@
       <c r="F26" s="60"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -16540,10 +16508,10 @@
       <c r="F27" s="60"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -16557,10 +16525,10 @@
       <c r="F28" s="60"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -16574,10 +16542,10 @@
       <c r="F29" s="60"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -16591,10 +16559,10 @@
       <c r="F30" s="60"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -16608,10 +16576,10 @@
       <c r="F31" s="60"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -16625,10 +16593,10 @@
       <c r="F32" s="60"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -16642,10 +16610,10 @@
       <c r="F33" s="60"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -16659,10 +16627,10 @@
       <c r="F34" s="60"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -16676,10 +16644,10 @@
       <c r="F35" s="60"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -16693,10 +16661,10 @@
       <c r="F36" s="60"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -16710,10 +16678,10 @@
       <c r="F37" s="60"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -16727,10 +16695,10 @@
       <c r="F38" s="60"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -16744,13 +16712,35 @@
       <c r="F39" s="62"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="I25:L25"/>
     <mergeCell ref="I26:L26"/>
     <mergeCell ref="I12:L12"/>
@@ -16763,28 +16753,6 @@
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -16802,9 +16770,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -16930,12 +16896,12 @@
       <c r="H6" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="122" t="s">
         <v>354</v>
       </c>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -16959,10 +16925,10 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30">
@@ -16986,10 +16952,10 @@
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30">
@@ -17013,10 +16979,10 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30">
@@ -17040,10 +17006,10 @@
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30">
@@ -17067,10 +17033,10 @@
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30">
@@ -17094,10 +17060,10 @@
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30">
@@ -17121,10 +17087,10 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="121"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30">
@@ -17148,10 +17114,10 @@
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30">
@@ -17175,10 +17141,10 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30">
@@ -17202,10 +17168,10 @@
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30">
@@ -17229,10 +17195,10 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="128"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30">
@@ -17256,10 +17222,10 @@
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30">
@@ -17283,10 +17249,10 @@
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="128"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="121"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30">
@@ -17310,10 +17276,10 @@
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="128"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30">
@@ -17337,10 +17303,10 @@
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -17354,10 +17320,10 @@
       <c r="F22" s="60"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -17371,10 +17337,10 @@
       <c r="F23" s="60"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -17388,10 +17354,10 @@
       <c r="F24" s="60"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -17405,10 +17371,10 @@
       <c r="F25" s="60"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -17422,10 +17388,10 @@
       <c r="F26" s="60"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -17439,10 +17405,10 @@
       <c r="F27" s="60"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -17456,10 +17422,10 @@
       <c r="F28" s="60"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -17473,10 +17439,10 @@
       <c r="F29" s="60"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -17490,10 +17456,10 @@
       <c r="F30" s="60"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -17507,10 +17473,10 @@
       <c r="F31" s="60"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -17524,10 +17490,10 @@
       <c r="F32" s="60"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -17541,10 +17507,10 @@
       <c r="F33" s="60"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -17558,10 +17524,10 @@
       <c r="F34" s="60"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -17575,10 +17541,10 @@
       <c r="F35" s="60"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -17592,10 +17558,10 @@
       <c r="F36" s="60"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -17609,10 +17575,10 @@
       <c r="F37" s="60"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -17626,10 +17592,10 @@
       <c r="F38" s="60"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -17643,13 +17609,35 @@
       <c r="F39" s="62"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -17662,28 +17650,6 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -17701,9 +17667,7 @@
   </sheetPr>
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:AM27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -17829,10 +17793,10 @@
       <c r="H6" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="124"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="126"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A7" s="30">
@@ -17856,12 +17820,12 @@
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A8" s="30" t="str">
@@ -17875,10 +17839,10 @@
       <c r="F8" s="33"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A9" s="30" t="str">
@@ -17892,10 +17856,10 @@
       <c r="F9" s="33"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A10" s="30" t="str">
@@ -17909,10 +17873,10 @@
       <c r="F10" s="33"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="119"/>
     </row>
     <row r="11" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="30" t="str">
@@ -17926,10 +17890,10 @@
       <c r="F11" s="33"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A12" s="30" t="str">
@@ -17943,10 +17907,10 @@
       <c r="F12" s="33"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="118"/>
+      <c r="L12" s="119"/>
     </row>
     <row r="13" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A13" s="30" t="str">
@@ -17960,10 +17924,10 @@
       <c r="F13" s="33"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A14" s="30" t="str">
@@ -17977,10 +17941,10 @@
       <c r="F14" s="33"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="133"/>
     </row>
     <row r="15" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A15" s="30" t="str">
@@ -17994,10 +17958,10 @@
       <c r="F15" s="33"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
     </row>
     <row r="16" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="30" t="str">
@@ -18011,10 +17975,10 @@
       <c r="F16" s="33"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
     </row>
     <row r="17" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A17" s="30" t="str">
@@ -18028,10 +17992,10 @@
       <c r="F17" s="33"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="119"/>
     </row>
     <row r="18" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A18" s="30" t="str">
@@ -18045,10 +18009,10 @@
       <c r="F18" s="33"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="119"/>
     </row>
     <row r="19" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A19" s="30" t="str">
@@ -18062,10 +18026,10 @@
       <c r="F19" s="33"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
     </row>
     <row r="20" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A20" s="30" t="str">
@@ -18079,10 +18043,10 @@
       <c r="F20" s="33"/>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="30" t="str">
@@ -18096,10 +18060,10 @@
       <c r="F21" s="33"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
     </row>
     <row r="22" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="30" t="str">
@@ -18113,10 +18077,10 @@
       <c r="F22" s="33"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A23" s="30" t="str">
@@ -18130,10 +18094,10 @@
       <c r="F23" s="33"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="119"/>
     </row>
     <row r="24" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A24" s="30" t="str">
@@ -18147,10 +18111,10 @@
       <c r="F24" s="33"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
     </row>
     <row r="25" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="30" t="str">
@@ -18164,10 +18128,10 @@
       <c r="F25" s="33"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A26" s="30" t="str">
@@ -18181,10 +18145,10 @@
       <c r="F26" s="33"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
     </row>
     <row r="27" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="30" t="str">
@@ -18198,10 +18162,10 @@
       <c r="F27" s="33"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="119"/>
     </row>
     <row r="28" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A28" s="30" t="str">
@@ -18215,10 +18179,10 @@
       <c r="F28" s="33"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="119"/>
     </row>
     <row r="29" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A29" s="30" t="str">
@@ -18232,10 +18196,10 @@
       <c r="F29" s="33"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
     </row>
     <row r="30" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="30" t="str">
@@ -18249,10 +18213,10 @@
       <c r="F30" s="33"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="119"/>
     </row>
     <row r="31" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A31" s="30" t="str">
@@ -18266,10 +18230,10 @@
       <c r="F31" s="33"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
     </row>
     <row r="32" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="str">
@@ -18283,10 +18247,10 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="119"/>
     </row>
     <row r="33" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="str">
@@ -18300,10 +18264,10 @@
       <c r="F33" s="33"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
     </row>
     <row r="34" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="str">
@@ -18317,10 +18281,10 @@
       <c r="F34" s="33"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
     </row>
     <row r="35" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="str">
@@ -18334,10 +18298,10 @@
       <c r="F35" s="33"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="119"/>
     </row>
     <row r="36" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="30" t="str">
@@ -18351,10 +18315,10 @@
       <c r="F36" s="33"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="119"/>
     </row>
     <row r="37" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A37" s="30" t="str">
@@ -18368,10 +18332,10 @@
       <c r="F37" s="33"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="118"/>
+      <c r="L37" s="119"/>
     </row>
     <row r="38" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A38" s="30" t="str">
@@ -18385,10 +18349,10 @@
       <c r="F38" s="33"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="118"/>
+      <c r="K38" s="118"/>
+      <c r="L38" s="119"/>
     </row>
     <row r="39" spans="1:12" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A39" s="39" t="str">
@@ -18402,19 +18366,25 @@
       <c r="F39" s="42"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I35:L35"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
@@ -18431,18 +18401,12 @@
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0" right="0" top="0.59055118110236227" bottom="0.39370078740157483" header="0" footer="0"/>
